--- a/AnalysisOutputFolder/20250521_Order_Development_Output.xlsx
+++ b/AnalysisOutputFolder/20250521_Order_Development_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mckinsey-my.sharepoint.com/personal/tony_yang_mckinsey_com/Documents/Documents/Python/AnalysisOutputFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_6A8D73A7D3B0502393393D11595ED87657CF075B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FB8096-B8D3-4B66-AF81-28AA6617F8C6}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_6A8D73A7D3B0502393393D11595ED87657CF075B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01939EA6-C752-4506-9E49-120485B019E5}"/>
   <bookViews>
     <workbookView xWindow="-4785" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11435,7 +11435,7 @@
   <dimension ref="A1:HZ2347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+      <selection activeCell="I1484" sqref="I1484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
